--- a/IMED/Imed_calculation/myframes.xlsx
+++ b/IMED/Imed_calculation/myframes.xlsx
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>9.150410000000001</v>
+        <v>10.50676</v>
       </c>
       <c r="Q2">
-        <v>9.150350000000001</v>
+        <v>10.5067</v>
       </c>
       <c r="R2">
         <v>6.000000000000001e-05</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>7.794060000000002</v>
+        <v>9.150410000000001</v>
       </c>
       <c r="U2">
-        <v>7.794000000000001</v>
+        <v>9.150350000000001</v>
       </c>
       <c r="V2">
         <v>6.000000000000001e-05</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>7.41546</v>
+        <v>8.43515</v>
       </c>
       <c r="Q3">
-        <v>7.41542</v>
+        <v>8.43511</v>
       </c>
       <c r="R3">
         <v>4e-05</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6.0105</v>
+        <v>7.41546</v>
       </c>
       <c r="U3">
-        <v>6.01046</v>
+        <v>7.41542</v>
       </c>
       <c r="V3">
         <v>4e-05</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>19.95795</v>
+        <v>26.51457</v>
       </c>
       <c r="Q4">
-        <v>19.9579</v>
+        <v>26.51452</v>
       </c>
       <c r="R4">
         <v>5e-05</v>
@@ -1295,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>79.13948000000001</v>
+        <v>87.44543</v>
       </c>
       <c r="Q5">
-        <v>79.13942</v>
+        <v>87.44537</v>
       </c>
       <c r="R5">
         <v>6e-05</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>75.76931</v>
+        <v>79.13948000000001</v>
       </c>
       <c r="U5">
-        <v>75.76925</v>
+        <v>79.13942</v>
       </c>
       <c r="V5">
         <v>6e-05</v>
@@ -1328,10 +1328,10 @@
         <v>0.004</v>
       </c>
       <c r="AA5">
+        <v>0.0035</v>
+      </c>
+      <c r="AB5">
         <v>0.003</v>
-      </c>
-      <c r="AB5">
-        <v>0.0025</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.25787</v>
+        <v>0.33757</v>
       </c>
       <c r="Q6">
-        <v>0.25763</v>
+        <v>0.33733</v>
       </c>
       <c r="R6">
         <v>0.00024</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.19261</v>
+        <v>0.25787</v>
       </c>
       <c r="U6">
-        <v>0.19237</v>
+        <v>0.25763</v>
       </c>
       <c r="V6">
         <v>0.00024</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>2.31833</v>
+        <v>2.48467</v>
       </c>
       <c r="Q8">
-        <v>2.3181</v>
+        <v>2.48444</v>
       </c>
       <c r="R8">
         <v>0.00023</v>
@@ -1565,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2.11001</v>
+        <v>2.31833</v>
       </c>
       <c r="U8">
-        <v>2.10978</v>
+        <v>2.3181</v>
       </c>
       <c r="V8">
         <v>0.00023</v>
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>17.20413</v>
+        <v>19.72684</v>
       </c>
       <c r="Q9">
-        <v>17.20386</v>
+        <v>19.72657</v>
       </c>
       <c r="R9">
         <v>0.0002699999999999999</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>13.07613</v>
+        <v>17.20413</v>
       </c>
       <c r="U9">
-        <v>13.07586</v>
+        <v>17.20386</v>
       </c>
       <c r="V9">
         <v>0.0002699999999999999</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.41293</v>
+        <v>0.8395974999999999</v>
       </c>
       <c r="Q10">
-        <v>0.41278</v>
+        <v>0.8394474999999999</v>
       </c>
       <c r="R10">
         <v>0.00015</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.00763</v>
+        <v>0.41293</v>
       </c>
       <c r="U10">
-        <v>0.00748</v>
+        <v>0.41278</v>
       </c>
       <c r="V10">
         <v>0.00015</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.31561</v>
+        <v>14.40128</v>
       </c>
       <c r="Q12">
-        <v>11.31544</v>
+        <v>14.40111</v>
       </c>
       <c r="R12">
         <v>0.00017</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>10.95629</v>
+        <v>11.31561</v>
       </c>
       <c r="U12">
-        <v>10.95612</v>
+        <v>11.31544</v>
       </c>
       <c r="V12">
         <v>0.00017</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.03306</v>
+        <v>0.0358</v>
       </c>
       <c r="Q13">
-        <v>0.03288</v>
+        <v>0.03562</v>
       </c>
       <c r="R13">
         <v>0.00018</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0.03021</v>
+        <v>0.03306</v>
       </c>
       <c r="U13">
-        <v>0.03003</v>
+        <v>0.03288</v>
       </c>
       <c r="V13">
         <v>0.00018</v>
@@ -2155,25 +2155,25 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>385.562405</v>
+      </c>
+      <c r="Q15">
+        <v>39.931065</v>
+      </c>
+      <c r="R15">
+        <v>345.63134</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>331.6580750000001</v>
       </c>
-      <c r="Q15">
+      <c r="U15">
         <v>33.977045</v>
       </c>
-      <c r="R15">
+      <c r="V15">
         <v>297.68103</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>244.220035</v>
-      </c>
-      <c r="U15">
-        <v>25.084435</v>
-      </c>
-      <c r="V15">
-        <v>219.1356</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2188,10 +2188,10 @@
         <v>0.01</v>
       </c>
       <c r="AA15">
+        <v>0.005</v>
+      </c>
+      <c r="AB15">
         <v>0.004</v>
-      </c>
-      <c r="AB15">
-        <v>0.003</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>2.10933</v>
+        <v>2.46008</v>
       </c>
       <c r="Q16">
-        <v>2.1091</v>
+        <v>2.45985</v>
       </c>
       <c r="R16">
         <v>0.00023</v>
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.00024</v>
+        <v>2.46124</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.461</v>
       </c>
       <c r="R17">
         <v>0.00024</v>
@@ -2446,10 +2446,10 @@
         <v>0.01</v>
       </c>
       <c r="AA18">
+        <v>0.006</v>
+      </c>
+      <c r="AB18">
         <v>0.005</v>
-      </c>
-      <c r="AB18">
-        <v>0.003</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>2.20245</v>
+        <v>2.78205</v>
       </c>
       <c r="Q19">
-        <v>2.20164</v>
+        <v>2.78124</v>
       </c>
       <c r="R19">
         <v>0.00081</v>
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3.03389</v>
+        <v>6.020899999999999</v>
       </c>
       <c r="U20">
-        <v>3.0336</v>
+        <v>6.02061</v>
       </c>
       <c r="V20">
         <v>0.00029</v>
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>6.14073</v>
+        <v>6.21191</v>
       </c>
       <c r="Q21">
-        <v>6.14043</v>
+        <v>6.21161</v>
       </c>
       <c r="R21">
         <v>0.0003</v>
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5.99838</v>
+        <v>6.14073</v>
       </c>
       <c r="U21">
-        <v>5.99808</v>
+        <v>6.14043</v>
       </c>
       <c r="V21">
         <v>0.0003</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>205.65714</v>
+        <v>241.80041</v>
       </c>
       <c r="Q22">
-        <v>205.65683</v>
+        <v>241.8001</v>
       </c>
       <c r="R22">
         <v>0.00031</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>192.17804</v>
+        <v>205.65714</v>
       </c>
       <c r="U22">
-        <v>192.17773</v>
+        <v>205.65683</v>
       </c>
       <c r="V22">
         <v>0.00031</v>
@@ -2790,10 +2790,10 @@
         <v>0.006</v>
       </c>
       <c r="AA22">
+        <v>0.005</v>
+      </c>
+      <c r="AB22">
         <v>0.0045</v>
-      </c>
-      <c r="AB22">
-        <v>0.004</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>40.11243</v>
+        <v>44.07971</v>
       </c>
       <c r="Q23">
-        <v>10.64799</v>
+        <v>14.61527</v>
       </c>
       <c r="R23">
         <v>29.46444</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>38.91468999999999</v>
+        <v>40.11243</v>
       </c>
       <c r="U23">
-        <v>9.45025</v>
+        <v>10.64799</v>
       </c>
       <c r="V23">
         <v>29.46444</v>
@@ -3531,25 +3531,25 @@
         <v>0</v>
       </c>
       <c r="P31">
+        <v>3920.34432</v>
+      </c>
+      <c r="Q31">
+        <v>566.5412675000001</v>
+      </c>
+      <c r="R31">
+        <v>3353.8030525</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>2346.80432</v>
       </c>
-      <c r="Q31">
+      <c r="U31">
         <v>369.7312674999999</v>
       </c>
-      <c r="R31">
+      <c r="V31">
         <v>1977.0730525</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>909.51666</v>
-      </c>
-      <c r="U31">
-        <v>190.0702875</v>
-      </c>
-      <c r="V31">
-        <v>719.4463725000001</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3564,10 +3564,10 @@
         <v>0.19</v>
       </c>
       <c r="AA31">
+        <v>0.0885</v>
+      </c>
+      <c r="AB31">
         <v>0.07049999999999999</v>
-      </c>
-      <c r="AB31">
-        <v>0.0605</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -6045,16 +6045,16 @@
         <v>0.003</v>
       </c>
       <c r="N5">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
       <c r="O5">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
       <c r="P5">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
       <c r="Q5">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -6575,16 +6575,16 @@
         <v>0.004</v>
       </c>
       <c r="N15">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="O15">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="P15">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="Q15">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6734,16 +6734,16 @@
         <v>0.005</v>
       </c>
       <c r="N18">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="O18">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="P18">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="Q18">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6946,16 +6946,16 @@
         <v>0.0045</v>
       </c>
       <c r="N22">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="O22">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="P22">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="Q22">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -7423,16 +7423,16 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="N31">
-        <v>0.07049999999999999</v>
+        <v>0.0885</v>
       </c>
       <c r="O31">
-        <v>0.07049999999999999</v>
+        <v>0.0885</v>
       </c>
       <c r="P31">
-        <v>0.07049999999999999</v>
+        <v>0.0885</v>
       </c>
       <c r="Q31">
-        <v>0.07049999999999999</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="32" spans="1:17">
